--- a/memoria/pasillo.xlsx
+++ b/memoria/pasillo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A32BCC-9C5F-45B6-BF9F-7330B9819AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0D8A0F-0B8D-456F-9587-925D045AC466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28155" windowHeight="14865" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-1200" yWindow="1260" windowWidth="20940" windowHeight="10650" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
                   <c:v>60.405999999999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.091666666666683</c:v>
+                  <c:v>53.75333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>82.76</c:v>
@@ -573,10 +573,10 @@
                   <c:v>105.92020833333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111.4023076923077</c:v>
+                  <c:v>127.4221153846154</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90.671428571428578</c:v>
+                  <c:v>108.52892857142859</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>95.617333333333335</c:v>
@@ -585,7 +585,7 @@
                   <c:v>157.69593750000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>93.101470588235287</c:v>
+                  <c:v>99.985588235294117</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>120.8879166666667</c:v>
@@ -1410,7 +1410,7 @@
                   <c:v>61.522500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.032083333333333</c:v>
+                  <c:v>54.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>84.139285714285705</c:v>
@@ -1431,10 +1431,10 @@
                   <c:v>110.371875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>113.9209615384616</c:v>
+                  <c:v>135.62442307692311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>92.685714285714283</c:v>
+                  <c:v>116.47125</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>104.2848333333333</c:v>
@@ -1443,7 +1443,7 @@
                   <c:v>172.82499999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>96.617352941176463</c:v>
+                  <c:v>105.8326470588235</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>136.57458333333341</c:v>
@@ -2258,7 +2258,7 @@
                   <c:v>437.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>516.85</c:v>
+                  <c:v>545.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>544.9</c:v>
@@ -2279,10 +2279,10 @@
                   <c:v>588.17499999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>603.32500000000005</c:v>
+                  <c:v>567.875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>613.17499999999995</c:v>
+                  <c:v>564.65</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>619.85</c:v>
@@ -2291,7 +2291,7 @@
                   <c:v>581.22500000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>625.92499999999995</c:v>
+                  <c:v>621.07500000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>604.54999999999995</c:v>
@@ -2939,7 +2939,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.575000000000003</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>70</c:v>
@@ -2960,10 +2960,10 @@
                   <c:v>118.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
+                  <c:v>126.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>147.125</c:v>
@@ -2972,7 +2972,7 @@
                   <c:v>151.02500000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170</c:v>
+                  <c:v>168.35</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>174.15</c:v>
@@ -3611,7 +3611,7 @@
                   <c:v>437.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>540.82500000000005</c:v>
+                  <c:v>545.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>544.9</c:v>
@@ -3632,10 +3632,10 @@
                   <c:v>612.02499999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>603.32500000000005</c:v>
+                  <c:v>614.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>613.17499999999995</c:v>
+                  <c:v>635.375</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>667.2</c:v>
@@ -3644,7 +3644,7 @@
                   <c:v>674.42499999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>625.92499999999995</c:v>
+                  <c:v>643.57500000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>673.1</c:v>
@@ -7687,7 +7687,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7871,10 +7871,10 @@
         <v>18</v>
       </c>
       <c r="G8">
-        <v>55.091666666666683</v>
+        <v>53.75333333333333</v>
       </c>
       <c r="H8">
-        <v>59.032083333333333</v>
+        <v>54.83</v>
       </c>
       <c r="I8">
         <v>21.366666666666671</v>
@@ -8053,10 +8053,10 @@
         <v>24</v>
       </c>
       <c r="G15">
-        <v>111.4023076923077</v>
+        <v>127.4221153846154</v>
       </c>
       <c r="H15">
-        <v>113.9209615384616</v>
+        <v>135.62442307692311</v>
       </c>
       <c r="I15">
         <v>24.838461538461541</v>
@@ -8079,10 +8079,10 @@
         <v>25</v>
       </c>
       <c r="G16">
-        <v>90.671428571428578</v>
+        <v>108.52892857142859</v>
       </c>
       <c r="H16">
-        <v>92.685714285714283</v>
+        <v>116.47125</v>
       </c>
       <c r="I16">
         <v>24.25714285714286</v>
@@ -8157,10 +8157,10 @@
         <v>27</v>
       </c>
       <c r="G19">
-        <v>93.101470588235287</v>
+        <v>99.985588235294117</v>
       </c>
       <c r="H19">
-        <v>96.617352941176463</v>
+        <v>105.8326470588235</v>
       </c>
       <c r="I19">
         <v>23.764705882352938</v>
@@ -8411,13 +8411,13 @@
         <v>18</v>
       </c>
       <c r="G32">
-        <v>516.85</v>
+        <v>545.25</v>
       </c>
       <c r="H32">
-        <v>710</v>
+        <v>782</v>
       </c>
       <c r="I32">
-        <v>118.14409932420745</v>
+        <v>94.34273306435044</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -8593,13 +8593,13 @@
         <v>24</v>
       </c>
       <c r="G39">
-        <v>603.32500000000005</v>
+        <v>567.875</v>
       </c>
       <c r="H39">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="I39">
-        <v>52.707410805750584</v>
+        <v>131.31644838094203</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -8619,13 +8619,13 @@
         <v>25</v>
       </c>
       <c r="G40">
-        <v>613.17499999999995</v>
+        <v>564.65</v>
       </c>
       <c r="H40">
-        <v>763</v>
+        <v>836</v>
       </c>
       <c r="I40">
-        <v>75.438848558252005</v>
+        <v>163.26234197662453</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -8697,13 +8697,13 @@
         <v>27</v>
       </c>
       <c r="G43">
-        <v>625.92499999999995</v>
+        <v>621.07500000000005</v>
       </c>
       <c r="H43">
-        <v>712</v>
+        <v>821</v>
       </c>
       <c r="I43">
-        <v>55.35683197360418</v>
+        <v>107.56211979774582</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -8951,13 +8951,13 @@
         <v>18</v>
       </c>
       <c r="G56">
-        <v>540.82500000000005</v>
+        <v>545.25</v>
       </c>
       <c r="H56">
-        <v>1000</v>
+        <v>782</v>
       </c>
       <c r="I56">
-        <v>116.39585143281198</v>
+        <v>94.34273306435044</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -9133,13 +9133,13 @@
         <v>24</v>
       </c>
       <c r="G63">
-        <v>603.32500000000005</v>
+        <v>614.6</v>
       </c>
       <c r="H63">
-        <v>716</v>
+        <v>1000</v>
       </c>
       <c r="I63">
-        <v>52.707410805750584</v>
+        <v>107.82340738210405</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -9159,13 +9159,13 @@
         <v>25</v>
       </c>
       <c r="G64">
-        <v>613.17499999999995</v>
+        <v>635.375</v>
       </c>
       <c r="H64">
-        <v>763</v>
+        <v>1000</v>
       </c>
       <c r="I64">
-        <v>75.438848558252005</v>
+        <v>127.58681056742985</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -9237,13 +9237,13 @@
         <v>27</v>
       </c>
       <c r="G67">
-        <v>625.92499999999995</v>
+        <v>643.57500000000005</v>
       </c>
       <c r="H67">
-        <v>712</v>
+        <v>1000</v>
       </c>
       <c r="I67">
-        <v>55.35683197360418</v>
+        <v>88.147570759319507</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -9491,13 +9491,13 @@
         <v>18</v>
       </c>
       <c r="G81">
-        <v>59.575000000000003</v>
+        <v>60</v>
       </c>
       <c r="H81">
         <v>60</v>
       </c>
       <c r="I81">
-        <v>2.6879360111431243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -9673,13 +9673,13 @@
         <v>24</v>
       </c>
       <c r="G88">
-        <v>130</v>
+        <v>126.8</v>
       </c>
       <c r="H88">
         <v>130</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>14.214835154216143</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -9699,13 +9699,13 @@
         <v>25</v>
       </c>
       <c r="G89">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H89">
         <v>140</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>14.284651975154384</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -9777,13 +9777,13 @@
         <v>27</v>
       </c>
       <c r="G92">
-        <v>170</v>
+        <v>168.35</v>
       </c>
       <c r="H92">
         <v>170</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>10.435516278555646</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
